--- a/Innovation CBC Slide Duplicate/Innovation CBC Datasets/Edgewell Mexico Inno Extract.xlsx
+++ b/Innovation CBC Slide Duplicate/Innovation CBC Datasets/Edgewell Mexico Inno Extract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SophieZIMMERMANN\Documents\Slide-Automate\Innovation CBC Slide Duplicate\Innovation CBC Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pricingone.sharepoint.com/sites/INT-EDGEWELL-03PRESENTATION/Documents partages/03 PRESENTATION/MEXICO/02. CONSUMER RESEARCH/4. Data extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAD07C-80F0-4682-9618-9BE88FF1466F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{491A971E-B79D-47F7-84BC-BDE69E992983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3E6FCF-C9BA-484C-AF86-61BDA75A0F73}"/>
   <bookViews>
-    <workbookView xWindow="3144" yWindow="3144" windowWidth="17280" windowHeight="9984" firstSheet="1" activeTab="3" xr2:uid="{151BE088-4905-404F-BF56-AB343F48A3AD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{151BE088-4905-404F-BF56-AB343F48A3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sourcing" sheetId="3" r:id="rId3"/>
     <sheet name="Fair" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="163">
   <si>
     <t>Sheets names</t>
   </si>
@@ -50,10 +50,19 @@
     <t>Cannibalization</t>
   </si>
   <si>
+    <t>GM%</t>
+  </si>
+  <si>
+    <t>TM%</t>
+  </si>
+  <si>
     <t>Client</t>
   </si>
   <si>
-    <t>Share Index</t>
+    <t>Unit Share Index</t>
+  </si>
+  <si>
+    <t>Volume Share Index</t>
   </si>
   <si>
     <t>Revenue Index</t>
@@ -71,7 +80,13 @@
     <t>Brand</t>
   </si>
   <si>
+    <t>Volume Shre Index</t>
+  </si>
+  <si>
     <t>1_HTOz300_395</t>
+  </si>
+  <si>
+    <t>Ozono</t>
   </si>
   <si>
     <t>Hawaiian Tropic Ozono Lotion FPS50+ 300ml</t>
@@ -107,6 +122,9 @@
     <t>1_SilkSer_225</t>
   </si>
   <si>
+    <t>Silk Hydration</t>
+  </si>
+  <si>
     <t>Hawaiian Tropic Silk Hydration Serum FPS50 100ml</t>
   </si>
   <si>
@@ -134,13 +152,13 @@
     <t>1_BCStick_345</t>
   </si>
   <si>
+    <t>Beautycare</t>
+  </si>
+  <si>
     <t>Beautycare Glow Stick FPS50 20g</t>
   </si>
   <si>
     <t>Beautycare Glow Stick FPS50 20g @345</t>
-  </si>
-  <si>
-    <t>Beautycare</t>
   </si>
   <si>
     <t>1_BCSerum_350</t>
@@ -173,6 +191,9 @@
     <t>1_Aqua240_360</t>
   </si>
   <si>
+    <t>Sport</t>
+  </si>
+  <si>
     <t>Banana Boat Aqua Protect Sport Spray FPS50+ 240ml</t>
   </si>
   <si>
@@ -183,6 +204,9 @@
   </si>
   <si>
     <t>1_AP360_370</t>
+  </si>
+  <si>
+    <t>Advanced Protection</t>
   </si>
   <si>
     <t>Banana Boat Advanced Protection Lotion FPS50+ 360ml</t>
@@ -201,6 +225,9 @@
   </si>
   <si>
     <t>1_Kids240_360</t>
+  </si>
+  <si>
+    <t>Kids</t>
   </si>
   <si>
     <t>Banana Boat Kids Sport Spray FPS50+ 240ml</t>
@@ -230,34 +257,22 @@
     <t>1_Baby_300</t>
   </si>
   <si>
+    <t>Baby</t>
+  </si>
+  <si>
     <t>Banana Boat Baby Lotion FPS50+ 177ml</t>
   </si>
   <si>
     <t>Banana Boat Baby Lotion FPS50+ 177ml @300</t>
   </si>
   <si>
-    <t>Ozono</t>
+    <t>Used for Ranking</t>
   </si>
   <si>
-    <t>Kids</t>
+    <t>New Unit Share</t>
   </si>
   <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Baby</t>
-  </si>
-  <si>
-    <t>Silk Hydration</t>
-  </si>
-  <si>
-    <t>Advanced Protection</t>
-  </si>
-  <si>
-    <t>Used for Sourcing</t>
-  </si>
-  <si>
-    <t>Rescaled share diff</t>
+    <t>To color</t>
   </si>
   <si>
     <t>Hawaiian Tropic Ozono Lotion FPS50+ 120ml</t>
@@ -503,13 +518,10 @@
     <t>none</t>
   </si>
   <si>
-    <t>Used for Ranking</t>
+    <t>Used for Sourcing</t>
   </si>
   <si>
-    <t>New Unit Share</t>
-  </si>
-  <si>
-    <t>To color</t>
+    <t>Rescaled share diff</t>
   </si>
   <si>
     <t>Used for Fair</t>
@@ -525,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -921,18 +933,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB000249-7BCA-4063-AF46-DCBA4DA062A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,13 +958,13 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -962,923 +976,1139 @@
       <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.7">
+      <c r="S1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5">
         <v>0.50790695248905593</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6">
         <v>100.81710210194628</v>
       </c>
-      <c r="H2" s="6">
+      <c r="J2" s="6">
+        <v>99</v>
+      </c>
+      <c r="K2" s="6">
         <v>100.61517767315813</v>
       </c>
-      <c r="I2" s="6">
+      <c r="L2" s="6">
         <v>100</v>
       </c>
-      <c r="J2" s="6">
+      <c r="M2" s="6">
         <v>100.593012859195</v>
       </c>
-      <c r="K2" s="6">
+      <c r="N2" s="6">
         <v>100.67552721584525</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="6">
         <v>101.7988704274907</v>
       </c>
-      <c r="N2" s="6">
+      <c r="Q2" s="6">
+        <v>99</v>
+      </c>
+      <c r="R2" s="6">
         <v>101.76423099635099</v>
       </c>
-      <c r="O2" s="6">
+      <c r="S2" s="6">
         <v>100</v>
       </c>
-      <c r="P2" s="6">
+      <c r="T2" s="6">
         <v>101.82631411492437</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="U2" s="6">
         <v>102.02209818573913</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0.36367318690019795</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
         <v>109.9117608679143</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="6">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>110.50747172492513</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>100</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>110.40258077340451</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>108.12278729154092</v>
       </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3">
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3">
         <v>119.69604516620163</v>
       </c>
-      <c r="N3">
+      <c r="Q3" s="6">
+        <v>99</v>
+      </c>
+      <c r="R3">
         <v>118.14894477417266</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>100</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>118.65817210143976</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>114.9119920912031</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0.39542248283763726</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
         <v>100.74620815871316</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="6">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>100.60486748686826</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>100.60014681927979</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>100.10466254691161</v>
       </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4">
         <v>101.50198533893422</v>
       </c>
-      <c r="N4">
+      <c r="Q4" s="6">
+        <v>99</v>
+      </c>
+      <c r="R4">
         <v>101.25651893706898</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>100</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>101.30719684823065</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>100.44903421529111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0.3780516244552779</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
         <v>101.02849013697634</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="6">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>100.696912790466</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>100</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>100.69089777374529</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>100.59441087297898</v>
       </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5">
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5">
         <v>102.05457788243133</v>
       </c>
-      <c r="N5">
+      <c r="Q5" s="6">
+        <v>99</v>
+      </c>
+      <c r="R5">
         <v>101.41701088317639</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>100</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>101.47407444068577</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>101.33537758851678</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0.31602725329250803</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
         <v>110.72750410082861</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="6">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>106.62328921145661</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>106.55807139403576</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>104.83539689258461</v>
       </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6">
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6">
         <v>121.30756339871796</v>
       </c>
-      <c r="N6">
+      <c r="Q6" s="6">
+        <v>99</v>
+      </c>
+      <c r="R6">
         <v>111.46153354640953</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>111.78621961035205</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>108.91485629565763</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0.39105432642734694</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7">
         <v>100.69645844564168</v>
       </c>
-      <c r="H7">
+      <c r="J7" s="6">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>100.49872740690979</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>100.49471876861848</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>100.21790622705595</v>
       </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7">
         <v>101.38900386700978</v>
       </c>
-      <c r="N7">
+      <c r="Q7" s="6">
+        <v>99</v>
+      </c>
+      <c r="R7">
         <v>101.01633941904471</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>100</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>101.05618180832899</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>100.58254549235086</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0.33964869905826001</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
         <v>103.12721487355863</v>
       </c>
-      <c r="H8">
+      <c r="J8" s="6">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>104.45704662839867</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>100</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>104.84662766564202</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>105.03481428782804</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8">
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8">
         <v>206.23259008252353</v>
       </c>
-      <c r="N8">
+      <c r="Q8" s="6">
+        <v>99</v>
+      </c>
+      <c r="R8">
         <v>214.00129936485231</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>100</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>214.76309456622005</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>212.53536054399723</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0.30615092298743879</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
         <v>101.20300446320942</v>
       </c>
-      <c r="H9">
+      <c r="J9" s="6">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>101.67365810888396</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>100</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>101.8227517140011</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>102.08225910029202</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9">
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9">
         <v>140.18814601698699</v>
       </c>
-      <c r="N9">
+      <c r="Q9" s="6">
+        <v>99</v>
+      </c>
+      <c r="R9">
         <v>143.44649542245381</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>100</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>143.73694002575206</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>146.89964389334978</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0.31133154490034287</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
         <v>101.31104929857378</v>
       </c>
-      <c r="H10">
+      <c r="J10" s="6">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>101.46466335095626</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>100</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>101.6061006846636</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>100.83540804460928</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10">
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10">
         <v>143.17403026146178</v>
       </c>
-      <c r="N10">
+      <c r="Q10" s="6">
+        <v>99</v>
+      </c>
+      <c r="R10">
         <v>140.46699601443333</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>100</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <v>140.74239486499943</v>
       </c>
-      <c r="Q10">
+      <c r="U10">
         <v>121.80832831678146</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0.30691262492660376</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
         <v>110.57443025410765</v>
       </c>
-      <c r="H11">
+      <c r="J11" s="6">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>109.284027409597</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>100</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>110.08379938551612</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>110.19476912084669</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11">
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11">
         <v>458.94919183910156</v>
       </c>
-      <c r="N11">
+      <c r="Q11" s="6">
+        <v>99</v>
+      </c>
+      <c r="R11">
         <v>334.6470645389914</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>100</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>336.20904391693045</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>325.81391223252319</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0.46938205334400468</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
         <v>100.59021347440658</v>
       </c>
-      <c r="H12">
+      <c r="J12" s="6">
+        <v>99</v>
+      </c>
+      <c r="K12">
         <v>100.49192102661222</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>100</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>100.55877697777422</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>100.6401646779201</v>
       </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12">
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12">
         <v>102.33603190658323</v>
       </c>
-      <c r="N12">
+      <c r="Q12" s="6">
+        <v>99</v>
+      </c>
+      <c r="R12">
         <v>102.6992158453333</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>100</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>102.69956860488945</v>
       </c>
-      <c r="Q12">
+      <c r="U12">
         <v>102.79260473818215</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>0.50951594681881862</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
         <v>101.24622058574883</v>
       </c>
-      <c r="H13">
+      <c r="J13" s="6">
+        <v>99</v>
+      </c>
+      <c r="K13">
         <v>100.76536693702374</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>100</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>100.93920763570239</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>100.41920865142366</v>
       </c>
-      <c r="L13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13">
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13">
         <v>106.28585268246304</v>
       </c>
-      <c r="N13">
+      <c r="Q13" s="6">
+        <v>99</v>
+      </c>
+      <c r="R13">
         <v>107.1613115127364</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>100</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>107.2147305041959</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>105.90394017876035</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0.3938676141991227</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
         <v>101.73401161270806</v>
       </c>
-      <c r="H14">
+      <c r="J14" s="6">
+        <v>99</v>
+      </c>
+      <c r="K14">
         <v>102.01200516051641</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>100</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>102.13150457655884</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>101.99204993886595</v>
       </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14">
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14">
         <v>105.65624787138677</v>
       </c>
-      <c r="N14">
+      <c r="Q14" s="6">
+        <v>99</v>
+      </c>
+      <c r="R14">
         <v>105.95653872499588</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>100</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>105.96507033813106</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>105.45822260665823</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>0.50128534872098729</v>
       </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
         <v>100.60368704280944</v>
       </c>
-      <c r="H15">
+      <c r="J15" s="6">
+        <v>99</v>
+      </c>
+      <c r="K15">
         <v>100.50085309866743</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>100</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>100.5635139281608</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>100.64629230369833</v>
       </c>
-      <c r="L15" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15">
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15">
         <v>102.37624972433015</v>
       </c>
-      <c r="N15">
+      <c r="Q15" s="6">
+        <v>99</v>
+      </c>
+      <c r="R15">
         <v>102.77399610138671</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>100</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>102.75650026339001</v>
       </c>
-      <c r="Q15">
+      <c r="U15">
         <v>102.83951308129215</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
       </c>
       <c r="E16">
         <v>0.46771439435197149</v>
       </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
         <v>100.37683361649556</v>
       </c>
-      <c r="H16">
+      <c r="J16" s="6">
+        <v>99</v>
+      </c>
+      <c r="K16">
         <v>100.39522541550664</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>100</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>100.43502042844636</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>100.52861023960193</v>
       </c>
-      <c r="L16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16">
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16">
         <v>101.4556140684069</v>
       </c>
-      <c r="N16">
+      <c r="Q16" s="6">
+        <v>99</v>
+      </c>
+      <c r="R16">
         <v>101.76781612499404</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>100</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>101.76292089706497</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>101.93220378382645</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0.52010760493158414</v>
       </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
         <v>101.25305141251731</v>
       </c>
-      <c r="H17">
+      <c r="J17" s="6">
+        <v>99</v>
+      </c>
+      <c r="K17">
         <v>100.78814475500624</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>100</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>100.98025810282603</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>100.05315899002991</v>
       </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17">
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17">
         <v>106.43449666723291</v>
       </c>
-      <c r="N17">
+      <c r="Q17" s="6">
+        <v>99</v>
+      </c>
+      <c r="R17">
         <v>107.4638590844593</v>
       </c>
-      <c r="O17">
+      <c r="S17">
         <v>100</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>107.53263054050106</v>
       </c>
-      <c r="Q17">
+      <c r="U17">
         <v>105.15610316435632</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>0.41767092553278329</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
         <v>100.45775095825825</v>
       </c>
-      <c r="H18">
+      <c r="J18" s="6">
+        <v>99</v>
+      </c>
+      <c r="K18">
         <v>100.35393982907732</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>100</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>100.38978004760818</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>100.4098603574356</v>
       </c>
-      <c r="L18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18">
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18">
         <v>101.55722776260188</v>
       </c>
-      <c r="N18">
+      <c r="Q18" s="6">
+        <v>99</v>
+      </c>
+      <c r="R18">
         <v>101.4956430349268</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>100</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>101.49855806156822</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>101.49247078995475</v>
       </c>
     </row>
@@ -1892,80 +2122,78 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T99"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="T1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8">
         <v>9.1708562385104837E-3</v>
@@ -2019,15 +2247,15 @@
         <v>9.2558670736528088E-3</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8">
         <v>5.1758767102001958E-3</v>
@@ -2081,15 +2309,15 @@
         <v>5.2251064863858294E-3</v>
       </c>
       <c r="T3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8">
         <v>5.1945753000673788E-3</v>
@@ -2143,15 +2371,15 @@
         <v>5.2723569803142262E-3</v>
       </c>
       <c r="T4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8">
         <v>4.272067179358166E-2</v>
@@ -2205,15 +2433,15 @@
         <v>4.3494692772345606E-2</v>
       </c>
       <c r="T5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8">
         <v>1.0740100112679583E-2</v>
@@ -2267,15 +2495,15 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -2329,15 +2557,15 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -2391,15 +2619,15 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8">
         <v>4.9811858353435851E-3</v>
@@ -2453,15 +2681,15 @@
         <v>5.0341355221294824E-3</v>
       </c>
       <c r="T9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C10" s="8">
         <v>3.4832927857257986E-2</v>
@@ -2515,15 +2743,15 @@
         <v>3.5578174495767993E-2</v>
       </c>
       <c r="T10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8">
         <v>1.3899020672260107E-2</v>
@@ -2577,15 +2805,15 @@
         <v>1.4066913487108954E-2</v>
       </c>
       <c r="T11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8">
         <v>1.7052940516735025E-2</v>
@@ -2639,15 +2867,15 @@
         <v>1.7286940176302758E-2</v>
       </c>
       <c r="T12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C13" s="8">
         <v>4.2605313468364055E-2</v>
@@ -2701,15 +2929,15 @@
         <v>4.3474715605351356E-2</v>
       </c>
       <c r="T13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" s="8">
         <v>9.4105545396553809E-3</v>
@@ -2763,15 +2991,15 @@
         <v>9.6113651291865158E-3</v>
       </c>
       <c r="T14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -2825,15 +3053,15 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C16" s="8">
         <v>3.4051733918308968E-3</v>
@@ -2887,15 +3115,15 @@
         <v>3.4535675118202154E-3</v>
       </c>
       <c r="T16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" s="8">
         <v>1.1477085936680116E-3</v>
@@ -2949,15 +3177,15 @@
         <v>1.1542982328136822E-3</v>
       </c>
       <c r="T17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -3011,15 +3239,15 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -3073,15 +3301,15 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C20" s="8">
         <v>1.4817168164110938E-3</v>
@@ -3135,15 +3363,15 @@
         <v>1.4973258660141917E-3</v>
       </c>
       <c r="T20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8">
         <v>7.1371243384243141E-4</v>
@@ -3197,15 +3425,15 @@
         <v>7.1609062345188588E-4</v>
       </c>
       <c r="T21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C22" s="8">
         <v>1.8576364459236641E-3</v>
@@ -3259,15 +3487,15 @@
         <v>1.869818685526901E-3</v>
       </c>
       <c r="T22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -3321,15 +3549,15 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -3383,15 +3611,15 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -3445,15 +3673,15 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -3507,15 +3735,15 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8">
         <v>3.0939215037911343E-2</v>
@@ -3569,15 +3797,15 @@
         <v>3.1059094893957202E-2</v>
       </c>
       <c r="T27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C28" s="8">
         <v>4.8034672405054078E-3</v>
@@ -3631,15 +3859,15 @@
         <v>4.8260283382483143E-3</v>
       </c>
       <c r="T28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8">
         <v>0</v>
@@ -3693,15 +3921,15 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8">
         <v>6.4728089358549032E-3</v>
@@ -3755,15 +3983,15 @@
         <v>6.5006767404010464E-3</v>
       </c>
       <c r="T30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C31" s="8">
         <v>2.6910445565475328E-2</v>
@@ -3817,15 +4045,15 @@
         <v>2.7153428110153546E-2</v>
       </c>
       <c r="T31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8">
         <v>1.9297113833026427E-2</v>
@@ -3879,15 +4107,15 @@
         <v>1.9373847542933736E-2</v>
       </c>
       <c r="T32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8">
         <v>3.0395295321188325E-3</v>
@@ -3941,15 +4169,15 @@
         <v>3.0472938690694015E-3</v>
       </c>
       <c r="T33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8">
         <v>1.6267127470977727E-3</v>
@@ -4003,15 +4231,15 @@
         <v>1.6346886202683304E-3</v>
       </c>
       <c r="T34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C35" s="8">
         <v>1.5024396103144892E-3</v>
@@ -4065,15 +4293,15 @@
         <v>1.5039918137161987E-3</v>
       </c>
       <c r="T35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C36" s="8">
         <v>2.7632510860933886E-2</v>
@@ -4127,15 +4355,15 @@
         <v>2.7905250970895003E-2</v>
       </c>
       <c r="T36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
@@ -4189,15 +4417,15 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C38" s="8">
         <v>4.7575483082759919E-3</v>
@@ -4251,15 +4479,15 @@
         <v>4.7982084022553263E-3</v>
       </c>
       <c r="T38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C39" s="8">
         <v>1.2129982791799589E-2</v>
@@ -4313,15 +4541,15 @@
         <v>1.2185881715365585E-2</v>
       </c>
       <c r="T39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -4375,15 +4603,15 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8">
         <v>3.6053221282611072E-3</v>
@@ -4437,15 +4665,15 @@
         <v>3.6449937861817321E-3</v>
       </c>
       <c r="T41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C42" s="8">
         <v>3.056531774871312E-3</v>
@@ -4499,15 +4727,15 @@
         <v>3.0838852668787346E-3</v>
       </c>
       <c r="T42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C43" s="8">
         <v>6.0848639301297157E-3</v>
@@ -4561,15 +4789,15 @@
         <v>6.1233730804125235E-3</v>
       </c>
       <c r="T43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C44" s="8">
         <v>1.2209153855961112E-3</v>
@@ -4623,15 +4851,15 @@
         <v>1.2308330493843503E-3</v>
       </c>
       <c r="T44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C45" s="8">
         <v>4.1358457422071082E-3</v>
@@ -4685,15 +4913,15 @@
         <v>4.1496263956248489E-3</v>
       </c>
       <c r="T45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C46" s="8">
         <v>0</v>
@@ -4747,15 +4975,15 @@
         <v>0</v>
       </c>
       <c r="T46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -4809,15 +5037,15 @@
         <v>0</v>
       </c>
       <c r="T47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
@@ -4871,15 +5099,15 @@
         <v>0</v>
       </c>
       <c r="T48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C49" s="8">
         <v>0</v>
@@ -4933,15 +5161,15 @@
         <v>2.6519066663750522E-3</v>
       </c>
       <c r="T49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C50" s="8">
         <v>1.7239426522223242E-2</v>
@@ -4995,12 +5223,12 @@
         <v>1.7271736120733888E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:20">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8">
         <v>2.0200444346063214E-2</v>
@@ -5054,12 +5282,12 @@
         <v>2.0316114545521614E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:20">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C52" s="8">
         <v>6.547422965411602E-3</v>
@@ -5113,12 +5341,12 @@
         <v>6.5712075329445382E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:20">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C53" s="8">
         <v>1.3417527523480478E-2</v>
@@ -5172,12 +5400,12 @@
         <v>1.3493209208865172E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:20">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C54" s="8">
         <v>5.5364197291669325E-3</v>
@@ -5231,12 +5459,12 @@
         <v>5.5606246701893763E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:20">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C55" s="8">
         <v>5.0566428764383352E-2</v>
@@ -5290,12 +5518,12 @@
         <v>5.1000615378498156E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:20">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C56" s="8">
         <v>2.2459224984974425E-2</v>
@@ -5349,12 +5577,12 @@
         <v>2.2613414559176408E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:20">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C57" s="8">
         <v>5.7307294250152976E-2</v>
@@ -5408,12 +5636,12 @@
         <v>5.7639969067943331E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:20">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C58" s="8">
         <v>1.6999474085822943E-2</v>
@@ -5467,12 +5695,12 @@
         <v>1.7116743234729854E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:20">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C59" s="8">
         <v>2.2499534785646192E-2</v>
@@ -5526,12 +5754,12 @@
         <v>2.267849212444642E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:20">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C60" s="8">
         <v>1.4725115685420715E-2</v>
@@ -5585,12 +5813,12 @@
         <v>1.4801521425163269E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:20">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C61" s="8">
         <v>9.8075488828958841E-3</v>
@@ -5644,12 +5872,12 @@
         <v>9.8884770369772629E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:20">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C62" s="8">
         <v>1.5199921496095821E-2</v>
@@ -5703,12 +5931,12 @@
         <v>1.529835851736492E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:20">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C63" s="8">
         <v>1.1711869575189998E-2</v>
@@ -5762,12 +5990,12 @@
         <v>1.1767431579766674E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:20">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C64" s="8">
         <v>9.8515082873021804E-3</v>
@@ -5821,12 +6049,12 @@
         <v>9.8888772145514173E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:19">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C65" s="8">
         <v>6.9903925517730116E-3</v>
@@ -5880,12 +6108,12 @@
         <v>7.0297594628033764E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:19">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C66" s="8">
         <v>9.3843362357862337E-2</v>
@@ -5939,12 +6167,12 @@
         <v>9.446085508411757E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:19">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C67" s="8">
         <v>4.5081866746129504E-2</v>
@@ -5998,12 +6226,12 @@
         <v>4.5273326131780874E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:19">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C68" s="8">
         <v>1.047888600105833E-2</v>
@@ -6057,12 +6285,12 @@
         <v>1.0552572782383229E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:19">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C69" s="8">
         <v>1.4468774511018676E-2</v>
@@ -6116,12 +6344,12 @@
         <v>1.4650360922698861E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:19">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C70" s="8">
         <v>1.6413406480363731E-3</v>
@@ -6175,12 +6403,12 @@
         <v>1.6551979711727858E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:19">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C71" s="8">
         <v>3.9278246038185879E-3</v>
@@ -6234,12 +6462,12 @@
         <v>3.9497550759359113E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:19">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C72" s="8">
         <v>9.6730778232380771E-3</v>
@@ -6293,12 +6521,12 @@
         <v>9.7175694764535924E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:19">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C73" s="8">
         <v>1.2377115939788319E-2</v>
@@ -6352,12 +6580,12 @@
         <v>1.2439889521435639E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:19">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C74" s="8">
         <v>9.1920574137083714E-3</v>
@@ -6411,12 +6639,12 @@
         <v>9.2388514565466973E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:19">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C75" s="8">
         <v>1.1963631765519584E-2</v>
@@ -6470,12 +6698,12 @@
         <v>1.20086565676055E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:19">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C76" s="8">
         <v>4.5222927380685236E-3</v>
@@ -6529,12 +6757,12 @@
         <v>4.5390921291719091E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:19">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C77" s="8">
         <v>3.7785224662344606E-3</v>
@@ -6588,12 +6816,12 @@
         <v>3.7831682259621409E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:19">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C78" s="8">
         <v>1.0347080984241509E-2</v>
@@ -6647,12 +6875,12 @@
         <v>1.0355578213006558E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:19">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C79" s="8">
         <v>6.1393080393551749E-4</v>
@@ -6706,12 +6934,12 @@
         <v>6.1811250241167843E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:19">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C80" s="8">
         <v>7.4953833199175755E-3</v>
@@ -6765,12 +6993,12 @@
         <v>7.5606504333246205E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:19">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C81" s="8">
         <v>6.0012737285524542E-3</v>
@@ -6824,12 +7052,12 @@
         <v>6.0582840563313881E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:19">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C82" s="8">
         <v>4.5524995162523558E-3</v>
@@ -6883,12 +7111,12 @@
         <v>4.6034705732240985E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:19">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C83" s="8">
         <v>7.1873404875603432E-3</v>
@@ -6942,12 +7170,12 @@
         <v>7.2335934544978673E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:19">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C84" s="8">
         <v>9.2458918077018004E-3</v>
@@ -7001,12 +7229,12 @@
         <v>9.2906510619868501E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:19">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C85" s="8">
         <v>9.1991131658186003E-3</v>
@@ -7060,12 +7288,12 @@
         <v>9.249862896442855E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:19">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C86" s="8">
         <v>2.6720954093859273E-3</v>
@@ -7119,12 +7347,12 @@
         <v>2.6906951686712318E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:19">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C87" s="8">
         <v>2.7782853787234802E-3</v>
@@ -7178,12 +7406,12 @@
         <v>2.7887299606089394E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:19">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C88" s="8">
         <v>4.0986003444839882E-3</v>
@@ -7237,12 +7465,12 @@
         <v>4.1026771836553729E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:19">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C89" s="8">
         <v>6.9345869235413323E-3</v>
@@ -7296,12 +7524,12 @@
         <v>6.9387381523340523E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:19">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C90" s="8">
         <v>6.8323113344280857E-3</v>
@@ -7355,12 +7583,12 @@
         <v>6.8338375734844185E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:19">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C91" s="8">
         <v>4.6937978552513276E-3</v>
@@ -7414,12 +7642,12 @@
         <v>4.7131123189171073E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:19">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C92" s="8">
         <v>9.1589938676547801E-4</v>
@@ -7473,12 +7701,12 @@
         <v>9.2000363016150888E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:19">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C93" s="8">
         <v>1.1204213871146961E-3</v>
@@ -7532,12 +7760,12 @@
         <v>1.1232326621813254E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:19">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C94" s="8">
         <v>1.0828018068242489E-3</v>
@@ -7591,12 +7819,12 @@
         <v>1.0848396897445033E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:19">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C95" s="8">
         <v>1.2849405335046246E-3</v>
@@ -7650,12 +7878,12 @@
         <v>1.2948713158232681E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:19">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C96" s="8">
         <v>1.0801167833586318E-2</v>
@@ -7709,12 +7937,12 @@
         <v>1.0842487591841796E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:19">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C97" s="8">
         <v>6.5962338213213225E-3</v>
@@ -7768,12 +7996,12 @@
         <v>6.6484901727433413E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:19">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C98" s="8">
         <v>1.1932812569894166E-2</v>
@@ -7827,12 +8055,12 @@
         <v>1.197785645337366E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:19">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C99" s="8">
         <v>0</v>
@@ -7897,76 +8125,76 @@
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:S99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.7">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="8">
         <v>-1.042556325229106E-2</v>
@@ -8020,12 +8248,12 @@
         <v>-1.0166556108555484E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:19">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8">
         <v>-7.1283742195276433E-3</v>
@@ -8079,12 +8307,12 @@
         <v>-1.0305670602689424E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:19">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8">
         <v>-8.5468782077113472E-3</v>
@@ -8138,12 +8366,12 @@
         <v>-5.2839896413119552E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:19">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8">
         <v>-8.2620049653358688E-2</v>
@@ -8197,12 +8425,12 @@
         <v>-4.2734017476789177E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:19">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -8256,12 +8484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:19">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -8315,12 +8543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:19">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8">
         <v>0</v>
@@ -8374,12 +8602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:19">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="8">
         <v>-6.8252700495902005E-3</v>
@@ -8433,12 +8661,12 @@
         <v>-7.675382056563043E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:19">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C10" s="8">
         <v>-7.7163383932516164E-2</v>
@@ -8492,12 +8720,12 @@
         <v>-3.1485206857781389E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:19">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8">
         <v>-1.8581941492235649E-2</v>
@@ -8551,12 +8779,12 @@
         <v>-1.1945781300448585E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:19">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8">
         <v>-2.4892795422283568E-2</v>
@@ -8610,12 +8838,12 @@
         <v>-1.2576406166523947E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:19">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C13" s="8">
         <v>-8.7898672176465117E-2</v>
@@ -8669,12 +8897,12 @@
         <v>-2.814518433318839E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:19">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" s="8">
         <v>-2.0612143154490021E-2</v>
@@ -8728,12 +8956,12 @@
         <v>-7.7551339742597484E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:19">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -8787,12 +9015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:19">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C16" s="8">
         <v>-5.8388747307023302E-3</v>
@@ -8846,12 +9074,12 @@
         <v>-5.3983721770224568E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:19">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" s="8">
         <v>-1.1248383293738355E-3</v>
@@ -8905,12 +9133,12 @@
         <v>-2.0706751078422049E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:19">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -8964,12 +9192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:19">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8">
         <v>0</v>
@@ -9023,12 +9251,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:19">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C20" s="8">
         <v>-1.9264209739050162E-3</v>
@@ -9082,12 +9310,12 @@
         <v>-1.91594394336393E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:19">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" s="8">
         <v>-5.6041017537070267E-4</v>
@@ -9141,12 +9369,12 @@
         <v>-1.3728506452935255E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:19">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C22" s="8">
         <v>-1.9843933161794798E-3</v>
@@ -9200,12 +9428,12 @@
         <v>-3.4429353759811649E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:19">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -9259,12 +9487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:19">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
@@ -9318,12 +9546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:19">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
@@ -9377,12 +9605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:19">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8">
         <v>0</v>
@@ -9436,12 +9664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:19">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8">
         <v>-2.470905854210555E-2</v>
@@ -9495,12 +9723,12 @@
         <v>-5.4865394861463739E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:19">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C28" s="8">
         <v>-4.4689693582543148E-3</v>
@@ -9554,12 +9782,12 @@
         <v>-9.5916198287669396E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:19">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C29" s="8">
         <v>0</v>
@@ -9613,12 +9841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:19">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C30" s="8">
         <v>-5.2295445385430748E-3</v>
@@ -9672,12 +9900,12 @@
         <v>-1.0670823260988784E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:19">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C31" s="8">
         <v>-3.061447637083425E-2</v>
@@ -9731,12 +9959,12 @@
         <v>-3.2361620237228828E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:19">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C32" s="8">
         <v>-1.3700582749413067E-2</v>
@@ -9790,12 +10018,12 @@
         <v>-2.6551432339693086E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:19">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8">
         <v>-2.21870283832398E-3</v>
@@ -9849,12 +10077,12 @@
         <v>-6.0578126134718715E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:19">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8">
         <v>-1.6102311134685971E-3</v>
@@ -9908,12 +10136,12 @@
         <v>-3.5137624980534363E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:19">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C35" s="8">
         <v>-9.9666775983040553E-4</v>
@@ -9967,12 +10195,12 @@
         <v>-3.4511426190045316E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:19">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C36" s="8">
         <v>-3.1796978832539499E-2</v>
@@ -10026,12 +10254,12 @@
         <v>-2.5929504553455416E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:19">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C37" s="8">
         <v>0</v>
@@ -10085,12 +10313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:19">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C38" s="8">
         <v>-6.0947525321938404E-3</v>
@@ -10144,12 +10372,12 @@
         <v>-9.3510675518350666E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:19">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C39" s="8">
         <v>-9.7533204319929043E-3</v>
@@ -10203,12 +10431,12 @@
         <v>-1.8421732153729317E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:19">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C40" s="8">
         <v>0</v>
@@ -10262,12 +10490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:19">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8">
         <v>-5.0352766328621117E-3</v>
@@ -10321,12 +10549,12 @@
         <v>-5.4329654184415762E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:19">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C42" s="8">
         <v>-4.0070549255155118E-3</v>
@@ -10380,12 +10608,12 @@
         <v>-5.9137371795429149E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:19">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C43" s="8">
         <v>-6.3615572347524756E-3</v>
@@ -10439,12 +10667,12 @@
         <v>-1.1242707622032968E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:19">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C44" s="8">
         <v>-1.4035170695939399E-3</v>
@@ -10498,12 +10726,12 @@
         <v>-1.9443557778383849E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:19">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C45" s="8">
         <v>-3.7762524728118135E-3</v>
@@ -10557,12 +10785,12 @@
         <v>-1.0097141249549971E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:19">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C46" s="8">
         <v>0</v>
@@ -10616,12 +10844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:19">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C47" s="8">
         <v>0</v>
@@ -10675,12 +10903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:19">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C48" s="8">
         <v>0</v>
@@ -10734,12 +10962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:19">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C49" s="8">
         <v>0</v>
@@ -10793,12 +11021,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:19">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C50" s="8">
         <v>-6.4108709012683854E-3</v>
@@ -10852,12 +11080,12 @@
         <v>-1.3780197184840718E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:19">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8">
         <v>-1.6212579627290634E-2</v>
@@ -10911,12 +11139,12 @@
         <v>-2.2042453290180886E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:19">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C52" s="8">
         <v>-4.165036216694301E-3</v>
@@ -10970,12 +11198,12 @@
         <v>-7.899349804769527E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:19">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C53" s="8">
         <v>-1.0643444341149904E-2</v>
@@ -11029,12 +11257,12 @@
         <v>-1.4566867255472678E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:19">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C54" s="8">
         <v>-4.1231506817110321E-3</v>
@@ -11088,12 +11316,12 @@
         <v>-7.5711978605343842E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:19">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C55" s="8">
         <v>-4.9028227003304455E-2</v>
@@ -11147,12 +11375,12 @@
         <v>-3.48358610878809E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:19">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C56" s="8">
         <v>-2.0569820422389386E-2</v>
@@ -11206,12 +11434,12 @@
         <v>-2.5163915940351455E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:19">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C57" s="8">
         <v>-4.6866110103050397E-2</v>
@@ -11265,12 +11493,12 @@
         <v>-6.4358183782374984E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:19">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C58" s="8">
         <v>-1.4729365324920777E-2</v>
@@ -11324,12 +11552,12 @@
         <v>-1.5432560202019401E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:19">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C59" s="8">
         <v>-2.1537065038704967E-2</v>
@@ -11383,12 +11611,12 @@
         <v>-1.9741605733175047E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:19">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C60" s="8">
         <v>-1.2821625487419618E-2</v>
@@ -11442,12 +11670,12 @@
         <v>-2.3115369170744353E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:19">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C61" s="8">
         <v>-1.0248026956715256E-2</v>
@@ -11501,12 +11729,12 @@
         <v>-1.0987068949530438E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:19">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C62" s="8">
         <v>-1.2204498275807281E-2</v>
@@ -11560,12 +11788,12 @@
         <v>-1.2308318558855395E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:19">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C63" s="8">
         <v>-7.6005978102342969E-3</v>
@@ -11619,12 +11847,12 @@
         <v>-9.8303523091511809E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:19">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C64" s="8">
         <v>-5.4363106047953073E-3</v>
@@ -11678,12 +11906,12 @@
         <v>-7.9254647821432565E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:19">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C65" s="8">
         <v>-5.6881169581064284E-3</v>
@@ -11737,12 +11965,12 @@
         <v>-8.1918548747508535E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:19">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C66" s="8">
         <v>-7.3932826202732435E-2</v>
@@ -11796,12 +12024,12 @@
         <v>-6.657595872964385E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:19">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C67" s="8">
         <v>-2.653191749931616E-2</v>
@@ -11855,12 +12083,12 @@
         <v>-3.5256167065805047E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:19">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C68" s="8">
         <v>-9.0313792823943015E-3</v>
@@ -11914,12 +12142,12 @@
         <v>-8.7903306021930305E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:19">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C69" s="8">
         <v>-1.9795204811843454E-2</v>
@@ -11973,12 +12201,12 @@
         <v>-1.169576220131689E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:19">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C70" s="8">
         <v>-1.6608061894445518E-3</v>
@@ -12032,12 +12260,12 @@
         <v>-1.5007698636015157E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:19">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C71" s="8">
         <v>-2.9891546795368634E-3</v>
@@ -12091,12 +12319,12 @@
         <v>-3.8362392320138989E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:19">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C72" s="8">
         <v>-6.3427673866338621E-3</v>
@@ -12150,12 +12378,12 @@
         <v>-8.9106844550725303E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:19">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C73" s="8">
         <v>-8.9211952286695328E-3</v>
@@ -12209,12 +12437,12 @@
         <v>-1.2459317913520462E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:19">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C74" s="8">
         <v>-7.3490282124402135E-3</v>
@@ -12268,12 +12496,12 @@
         <v>-1.2117792945599776E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:19">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C75" s="8">
         <v>-5.2379284528320733E-3</v>
@@ -12327,12 +12555,12 @@
         <v>-4.2350939506876186E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:19">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C76" s="8">
         <v>-2.3161778362637739E-3</v>
@@ -12386,12 +12614,12 @@
         <v>-3.0455788053420276E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:19">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C77" s="8">
         <v>-1.4290154029480741E-3</v>
@@ -12445,12 +12673,12 @@
         <v>-4.0355902785870037E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:19">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C78" s="8">
         <v>-2.7672113165457938E-3</v>
@@ -12504,12 +12732,12 @@
         <v>-8.0028826341024609E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:19">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C79" s="8">
         <v>-7.0419354457812509E-4</v>
@@ -12563,12 +12791,12 @@
         <v>-1.2750866137883137E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:19">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C80" s="8">
         <v>-7.6171931821770551E-3</v>
@@ -12622,12 +12850,12 @@
         <v>-6.2378907059232975E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:19">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C81" s="8">
         <v>-6.6844675767397908E-3</v>
@@ -12681,12 +12909,12 @@
         <v>-5.5739228618544596E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:19">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C82" s="8">
         <v>-5.6662502085173322E-3</v>
@@ -12740,12 +12968,12 @@
         <v>-3.7275209028140494E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:19">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C83" s="8">
         <v>-5.8921143444402215E-3</v>
@@ -12799,12 +13027,12 @@
         <v>-6.4213915267223734E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:19">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C84" s="8">
         <v>-6.0777980010500937E-3</v>
@@ -12858,12 +13086,12 @@
         <v>-7.7366616898765601E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:19">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C85" s="8">
         <v>-7.0866042842308418E-3</v>
@@ -12917,12 +13145,12 @@
         <v>-9.5633489552613658E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:19">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C86" s="8">
         <v>-2.3186713237696118E-3</v>
@@ -12976,12 +13204,12 @@
         <v>-2.3767815588306815E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:19">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C87" s="8">
         <v>-2.0667784620176624E-3</v>
@@ -13035,12 +13263,12 @@
         <v>-4.4318398744423587E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:19">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C88" s="8">
         <v>-1.6855826228737299E-3</v>
@@ -13094,12 +13322,12 @@
         <v>-5.2892083738547554E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:19">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C89" s="8">
         <v>-2.0114896138449228E-3</v>
@@ -13153,12 +13381,12 @@
         <v>-6.5810653356988954E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:19">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C90" s="8">
         <v>-1.6442646103926736E-3</v>
@@ -13212,12 +13440,12 @@
         <v>-6.0836709208448685E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:19">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C91" s="8">
         <v>-2.7929732532936489E-3</v>
@@ -13271,12 +13499,12 @@
         <v>-4.0281767160502751E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:19">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C92" s="8">
         <v>-7.7091946909396377E-4</v>
@@ -13330,12 +13558,12 @@
         <v>-1.5745308587951506E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:19">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C93" s="8">
         <v>-7.319500285586075E-4</v>
@@ -13389,12 +13617,12 @@
         <v>-1.9042681937489407E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:19">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C94" s="8">
         <v>-5.3571647963500998E-4</v>
@@ -13448,12 +13676,12 @@
         <v>-1.4011676014665637E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:19">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C95" s="8">
         <v>-1.3755200841465383E-3</v>
@@ -13507,12 +13735,12 @@
         <v>-1.8260224439614365E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:19">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C96" s="8">
         <v>-6.6363320349779693E-3</v>
@@ -13566,12 +13794,12 @@
         <v>-1.1295688706162144E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:19">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C97" s="8">
         <v>-6.1319316254801297E-3</v>
@@ -13625,12 +13853,12 @@
         <v>-5.1288411814038991E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:19">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C98" s="8">
         <v>-7.0728385059434162E-3</v>
@@ -13684,12 +13912,12 @@
         <v>-1.165919998135422E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:19">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C99" s="8">
         <v>0</v>
@@ -13753,77 +13981,75 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="9">
         <v>1.1231020806863852</v>
@@ -13877,12 +14103,12 @@
         <v>1.0952003304401203</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:19">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="9">
         <v>1.3571558032058797</v>
@@ -13936,12 +14162,12 @@
         <v>1.9620744132727348</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:19">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" s="9">
         <v>1.616776504423117</v>
@@ -13995,12 +14221,12 @@
         <v>0.99954978812970874</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:19">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="9">
         <v>1.8946067900717267</v>
@@ -14054,12 +14280,12 @@
         <v>0.97995777076221158</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:19">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9">
         <v>0</v>
@@ -14113,12 +14339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:19">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
@@ -14172,12 +14398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:19">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -14231,12 +14457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:19">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="9">
         <v>1.3503380477565579</v>
@@ -14290,12 +14516,12 @@
         <v>1.51852752297579</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:19">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9">
         <v>2.1637624718001631</v>
@@ -14349,12 +14575,12 @@
         <v>0.88288648765472855</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:19">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C11" s="9">
         <v>1.3179997493574944</v>
@@ -14408,12 +14634,12 @@
         <v>0.84730310696809807</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:19">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9">
         <v>1.437204173675064</v>
@@ -14467,12 +14693,12 @@
         <v>0.72610822230840133</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:19">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C13" s="9">
         <v>2.0183691395676968</v>
@@ -14526,12 +14752,12 @@
         <v>0.64628247593439592</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:19">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C14" s="9">
         <v>2.1399803539138147</v>
@@ -14585,12 +14811,12 @@
         <v>0.80514841287963279</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:19">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" s="9">
         <v>0</v>
@@ -14644,12 +14870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:19">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C16" s="9">
         <v>1.6836997972632322</v>
@@ -14703,12 +14929,12 @@
         <v>1.5566763390573521</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:19">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" s="9">
         <v>0.96986423702902125</v>
@@ -14762,12 +14988,12 @@
         <v>1.7853887809106874</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:19">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
@@ -14821,12 +15047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:19">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -14880,12 +15106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:19">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C20" s="9">
         <v>1.2822233044286926</v>
@@ -14939,12 +15165,12 @@
         <v>1.2752498064742137</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:19">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" s="9">
         <v>0.77863805434715194</v>
@@ -14998,12 +15224,12 @@
         <v>1.9074488693098515</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:19">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C22" s="9">
         <v>1.0561187588171701</v>
@@ -15057,12 +15283,12 @@
         <v>1.832372950625319</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:19">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
@@ -15116,12 +15342,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:19">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
@@ -15175,12 +15401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:19">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C25" s="9">
         <v>0</v>
@@ -15234,12 +15460,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:19">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" s="9">
         <v>0</v>
@@ -15293,12 +15519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:19">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C27" s="9">
         <v>0.79184044157222466</v>
@@ -15352,12 +15578,12 @@
         <v>1.758247422503125</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:19">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C28" s="9">
         <v>0.9211588445179647</v>
@@ -15411,12 +15637,12 @@
         <v>1.9770566164664578</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:19">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -15470,12 +15696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:19">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C30" s="9">
         <v>0.8009748428467609</v>
@@ -15529,12 +15755,12 @@
         <v>1.6343796140413447</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:19">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C31" s="9">
         <v>1.1239104784034646</v>
@@ -15588,12 +15814,12 @@
         <v>1.1880511573075769</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:19">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C32" s="9">
         <v>0.70460810169869925</v>
@@ -15647,12 +15873,12 @@
         <v>1.3655152251866123</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:19">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C33" s="9">
         <v>0.72427133469341998</v>
@@ -15706,12 +15932,12 @@
         <v>1.9775068346675246</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:19">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" s="9">
         <v>0.97945526917020254</v>
@@ -15765,12 +15991,12 @@
         <v>2.13731629239085</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:19">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C35" s="9">
         <v>0.65867347147143862</v>
@@ -15824,12 +16050,12 @@
         <v>2.2807761834189906</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:19">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C36" s="9">
         <v>1.1366613061234194</v>
@@ -15883,12 +16109,12 @@
         <v>0.92691398978768602</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:19">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -15942,12 +16168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:19">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C38" s="9">
         <v>1.263683234839508</v>
@@ -16001,12 +16227,12 @@
         <v>1.9388461189665687</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:19">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C39" s="9">
         <v>0.79718284757700197</v>
@@ -16060,12 +16286,12 @@
         <v>1.5056912154182198</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:19">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -16119,12 +16345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:19">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C41" s="9">
         <v>1.3759836487450983</v>
@@ -16178,12 +16404,12 @@
         <v>1.4846595579643294</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:19">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C42" s="9">
         <v>1.2927785405637737</v>
@@ -16237,12 +16463,12 @@
         <v>1.9079230662813187</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:19">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C43" s="9">
         <v>1.0338636741619187</v>
@@ -16296,12 +16522,12 @@
         <v>1.8271354922574197</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:19">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C44" s="9">
         <v>1.1355414405588562</v>
@@ -16355,12 +16581,12 @@
         <v>1.573116999256956</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:19">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C45" s="9">
         <v>0.90418774430455873</v>
@@ -16414,12 +16640,12 @@
         <v>2.417664453340187</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:19">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -16473,12 +16699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:19">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -16532,12 +16758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:19">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -16591,12 +16817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:19">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -16650,12 +16876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:19">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C50" s="9">
         <v>0.37039329915053754</v>
@@ -16709,12 +16935,12 @@
         <v>0.79616214034637056</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:19">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C51" s="9">
         <v>0.79572625895214188</v>
@@ -16768,12 +16994,12 @@
         <v>1.0818610793558288</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:19">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C52" s="9">
         <v>0.63181701069822982</v>
@@ -16827,12 +17053,12 @@
         <v>1.1982953617796708</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:19">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C53" s="9">
         <v>0.7865482436341048</v>
@@ -16886,12 +17112,12 @@
         <v>1.076488351683843</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:19">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C54" s="9">
         <v>0.73882284078796623</v>
@@ -16945,12 +17171,12 @@
         <v>1.3566746265907683</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:19">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C55" s="9">
         <v>0.95958800705541991</v>
@@ -17004,12 +17230,12 @@
         <v>0.68181283637130219</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:19">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C56" s="9">
         <v>0.90695269739329576</v>
@@ -17063,12 +17289,12 @@
         <v>1.1095129160310311</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:19">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C57" s="9">
         <v>0.81068310818051326</v>
@@ -17122,12 +17348,12 @@
         <v>1.113258436657677</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:19">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C58" s="9">
         <v>0.85847123947825266</v>
@@ -17181,12 +17407,12 @@
         <v>0.89945552932516504</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:19">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C59" s="9">
         <v>0.94748193564628402</v>
@@ -17240,12 +17466,12 @@
         <v>0.86849414157497473</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:19">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C60" s="9">
         <v>0.86266431465462512</v>
@@ -17299,12 +17525,12 @@
         <v>1.5552477432159</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:19">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C61" s="9">
         <v>1.033315800325521</v>
@@ -17358,12 +17584,12 @@
         <v>1.1078339267419997</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:19">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C62" s="9">
         <v>0.79606673070688461</v>
@@ -17417,12 +17643,12 @@
         <v>0.80283864966983021</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:19">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C63" s="9">
         <v>0.64447342371928229</v>
@@ -17476,12 +17702,12 @@
         <v>0.83353980400261685</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:19">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C64" s="9">
         <v>0.54857399704315746</v>
@@ -17535,12 +17761,12 @@
         <v>0.7997526650022615</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:19">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C65" s="9">
         <v>0.80665535986001569</v>
@@ -17594,12 +17820,12 @@
         <v>1.161720775184794</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:19">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C66" s="9">
         <v>0.7812220085137318</v>
@@ -17653,12 +17879,12 @@
         <v>0.70348459363477522</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:19">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C67" s="9">
         <v>0.5848308568879047</v>
@@ -17712,12 +17938,12 @@
         <v>0.77713547828608054</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:19">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C68" s="9">
         <v>0.85395975899654353</v>
@@ -17771,12 +17997,12 @@
         <v>0.83116746266896202</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:19">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C69" s="9">
         <v>1.3483207210076273</v>
@@ -17830,12 +18056,12 @@
         <v>0.79663932118441039</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:19">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C70" s="9">
         <v>1.0009813996995145</v>
@@ -17889,12 +18115,12 @@
         <v>0.90452620434724662</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:19">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C71" s="9">
         <v>0.75485068395984811</v>
@@ -17948,12 +18174,12 @@
         <v>0.96876479091003898</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:19">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C72" s="9">
         <v>0.65112794418621689</v>
@@ -18007,12 +18233,12 @@
         <v>0.91474198829205444</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:19">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C73" s="9">
         <v>0.71524452496256763</v>
@@ -18066,12 +18292,12 @@
         <v>0.99890863208276282</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:19">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C74" s="9">
         <v>0.79269105224565084</v>
@@ -18125,12 +18351,12 @@
         <v>1.3070661539551895</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:19">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C75" s="9">
         <v>0.43577183157300237</v>
@@ -18184,12 +18410,12 @@
         <v>0.35234056066134917</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:19">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C76" s="9">
         <v>0.50936703230801728</v>
@@ -18243,12 +18469,12 @@
         <v>0.66977475280555099</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:19">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C77" s="9">
         <v>0.37666428067795416</v>
@@ -18302,12 +18528,12 @@
         <v>1.0637133135577213</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:19">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C78" s="9">
         <v>0.26667286835265186</v>
@@ -18361,12 +18587,12 @@
         <v>0.77122829556425454</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:19">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C79" s="9">
         <v>1.1330658751945515</v>
@@ -18420,12 +18646,12 @@
         <v>2.0516477907596435</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:19">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C80" s="9">
         <v>1.005279058655657</v>
@@ -18479,12 +18705,12 @@
         <v>0.82324561644571481</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:19">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C81" s="9">
         <v>1.1006743611125058</v>
@@ -18538,12 +18764,12 @@
         <v>0.91781041862040136</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:19">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C82" s="9">
         <v>1.2282274956882464</v>
@@ -18597,12 +18823,12 @@
         <v>0.80798473330863818</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:19">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C83" s="9">
         <v>0.81263566507442342</v>
@@ -18656,12 +18882,12 @@
         <v>0.88563314779273217</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:19">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C84" s="9">
         <v>0.65274281623829755</v>
@@ -18715,12 +18941,12 @@
         <v>0.83090131308418735</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:19">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C85" s="9">
         <v>0.76403591764349321</v>
@@ -18774,12 +19000,12 @@
         <v>1.0310639343919723</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:19">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C86" s="9">
         <v>0.85972298692840776</v>
@@ -18833,12 +19059,12 @@
         <v>0.88126925109516063</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:19">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C87" s="9">
         <v>0.7380079149625044</v>
@@ -18892,12 +19118,12 @@
         <v>1.5825270900064863</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:19">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C88" s="9">
         <v>0.40944958824964556</v>
@@ -18951,12 +19177,12 @@
         <v>1.2848163960952514</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:19">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C89" s="9">
         <v>0.28916539981002976</v>
@@ -19010,12 +19236,12 @@
         <v>0.94607318669457141</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:19">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C90" s="9">
         <v>0.24003964895140362</v>
@@ -19069,12 +19295,12 @@
         <v>0.88813091454101123</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:19">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C91" s="9">
         <v>0.59125627801905578</v>
@@ -19128,12 +19354,12 @@
         <v>0.8527417043920047</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:19">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C92" s="9">
         <v>0.83416670700097639</v>
@@ -19187,12 +19413,12 @@
         <v>1.7037074223799156</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:19">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C93" s="9">
         <v>0.64872933975851987</v>
@@ -19246,12 +19472,12 @@
         <v>1.6877581800039296</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:19">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C94" s="9">
         <v>0.49213522099777562</v>
@@ -19305,12 +19531,12 @@
         <v>1.2871807260297061</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:19">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C95" s="9">
         <v>1.0583254019031785</v>
@@ -19364,12 +19590,12 @@
         <v>1.4049419991484717</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:19">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C96" s="9">
         <v>0.61038096181665125</v>
@@ -19423,12 +19649,12 @@
         <v>1.0389283267487419</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:19">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C97" s="9">
         <v>0.92042142248215864</v>
@@ -19482,12 +19708,12 @@
         <v>0.76985452288098899</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:19">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C98" s="9">
         <v>0.58897249503304416</v>
@@ -19541,12 +19767,12 @@
         <v>0.9708899895476214</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:19">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -19606,25 +19832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac27338d-fb66-4a8a-be75-8802b8d55d2c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D65874F91ED1644185B293C90C6C7228" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5d04d22e79b12653274b2b7ccaadc875">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac27338d-fb66-4a8a-be75-8802b8d55d2c" xmlns:ns3="21c460fe-265e-4d5c-a5e1-7f5be9aa672d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90b378bed26f48c9de610c3ac721dd54" ns2:_="" ns3:_="">
     <xsd:import namespace="ac27338d-fb66-4a8a-be75-8802b8d55d2c"/>
@@ -19853,46 +20060,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac27338d-fb66-4a8a-be75-8802b8d55d2c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2E0CD6-7DC6-479E-A11E-79C0E3E9CE24}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="21c460fe-265e-4d5c-a5e1-7f5be9aa672d"/>
-    <ds:schemaRef ds:uri="ac27338d-fb66-4a8a-be75-8802b8d55d2c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A89FA238-E725-433B-AD3E-75815379DDA5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C62DF59-249D-4CD4-9666-151745CC3B64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2E0CD6-7DC6-479E-A11E-79C0E3E9CE24}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B551C250-F0E7-42B0-88A6-37E1203B7F50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac27338d-fb66-4a8a-be75-8802b8d55d2c"/>
-    <ds:schemaRef ds:uri="21c460fe-265e-4d5c-a5e1-7f5be9aa672d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C62DF59-249D-4CD4-9666-151745CC3B64}"/>
 </file>